--- a/ase22/img/Graph.xlsx
+++ b/ase22/img/Graph.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yundongjun/PLRG/codeql/icse22/img/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406A83C-EEB8-A64B-9ADB-53CC74DEB483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{1872557E-7ED2-A341-887C-C75E5662FFB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35835" windowHeight="22395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -330,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -498,7 +497,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>(JN-QL) Query Evaluation</c:v>
+            <c:v>(MultiQL) Query Evaluation</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -640,7 +639,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>(JN-QL) DB Creation</c:v>
+            <c:v>(MultiQL) DB Creation</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -950,7 +949,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-417F-ED4F-9184-F0C09605CA5E}"/>
                 </c:ext>
@@ -972,7 +973,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-417F-ED4F-9184-F0C09605CA5E}"/>
                 </c:ext>
@@ -994,7 +997,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-417F-ED4F-9184-F0C09605CA5E}"/>
                 </c:ext>
@@ -1023,7 +1028,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-Kore-KR"/>
+                <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -1230,7 +1235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="477489472"/>
@@ -1275,7 +1280,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1288,7 +1293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="477487824"/>
@@ -1306,6 +1311,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,7 +1334,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1358,7 +1364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-Kore-KR"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2457,19 +2463,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF0C13-389E-1C4F-A94F-7C41509EF422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2536,7 +2542,7 @@
         <v>3.6429999999999998</v>
       </c>
       <c r="G2" s="6">
-        <f>SUM(D2:F2)</f>
+        <f t="shared" ref="G2:G26" si="0">SUM(D2:F2)</f>
         <v>11.183</v>
       </c>
       <c r="H2" s="4">
@@ -2553,11 +2559,11 @@
         <v>1.83</v>
       </c>
       <c r="L2" s="7">
-        <f>IF(K2&lt;&gt;"",J2+K2,"")</f>
+        <f t="shared" ref="L2:L26" si="1">IF(K2&lt;&gt;"",J2+K2,"")</f>
         <v>4.46</v>
       </c>
       <c r="M2" s="1">
-        <f>IF(L2&lt;&gt;"",L2/I2,"")</f>
+        <f t="shared" ref="M2:M26" si="2">IF(L2&lt;&gt;"",L2/I2,"")</f>
         <v>0.24761270264268265</v>
       </c>
       <c r="N2" s="1">
@@ -2584,7 +2590,7 @@
         <v>3.9889999999999999</v>
       </c>
       <c r="G3" s="12">
-        <f>SUM(D3:F3)</f>
+        <f t="shared" si="0"/>
         <v>15.030999999999999</v>
       </c>
       <c r="H3" s="4">
@@ -2600,11 +2606,11 @@
         <v>2.16</v>
       </c>
       <c r="L3" s="7">
-        <f>IF(K3&lt;&gt;"",J3+K3,"")</f>
+        <f t="shared" si="1"/>
         <v>30.14</v>
       </c>
       <c r="M3" s="1">
-        <f>IF(L3&lt;&gt;"",L3/I3,"")</f>
+        <f t="shared" si="2"/>
         <v>1.3022251026139555</v>
       </c>
       <c r="N3" s="1">
@@ -2631,7 +2637,7 @@
         <v>23.349</v>
       </c>
       <c r="G4">
-        <f>SUM(D4:F4)</f>
+        <f t="shared" si="0"/>
         <v>89.097000000000008</v>
       </c>
       <c r="H4" s="1">
@@ -2645,11 +2651,11 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="str">
-        <f>IF(K4&lt;&gt;"",J4+K4,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M4" s="1" t="str">
-        <f>IF(L4&lt;&gt;"",L4/I4,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N4" s="1">
@@ -2676,7 +2682,7 @@
         <v>14.148999999999999</v>
       </c>
       <c r="G5" s="6">
-        <f>SUM(D5:F5)</f>
+        <f t="shared" si="0"/>
         <v>61.463999999999999</v>
       </c>
       <c r="H5" s="4">
@@ -2693,11 +2699,11 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="L5" s="7">
-        <f>IF(K5&lt;&gt;"",J5+K5,"")</f>
+        <f t="shared" si="1"/>
         <v>30.270000000000003</v>
       </c>
       <c r="M5" s="1">
-        <f>IF(L5&lt;&gt;"",L5/I5,"")</f>
+        <f t="shared" si="2"/>
         <v>0.36906532712331441</v>
       </c>
       <c r="N5" s="1">
@@ -2724,7 +2730,7 @@
         <v>23.276</v>
       </c>
       <c r="G6" s="6">
-        <f>SUM(D6:F6)</f>
+        <f t="shared" si="0"/>
         <v>74.692999999999998</v>
       </c>
       <c r="H6" s="4">
@@ -2741,11 +2747,11 @@
         <v>9.83</v>
       </c>
       <c r="L6" s="7">
-        <f>IF(K6&lt;&gt;"",J6+K6,"")</f>
+        <f t="shared" si="1"/>
         <v>3328.4300000000003</v>
       </c>
       <c r="M6" s="1">
-        <f>IF(L6&lt;&gt;"",L6/I6,"")</f>
+        <f t="shared" si="2"/>
         <v>32.066108536691104</v>
       </c>
       <c r="N6" s="1">
@@ -2772,7 +2778,7 @@
         <v>56.743000000000002</v>
       </c>
       <c r="G7">
-        <f>SUM(D7:F7)</f>
+        <f t="shared" si="0"/>
         <v>257.745</v>
       </c>
       <c r="H7" s="1">
@@ -2786,11 +2792,11 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="str">
-        <f>IF(K7&lt;&gt;"",J7+K7,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IF(L7&lt;&gt;"",L7/I7,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N7" s="1">
@@ -2817,7 +2823,7 @@
         <v>5.8170000000000002</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(D8:F8)</f>
+        <f t="shared" si="0"/>
         <v>30.731999999999999</v>
       </c>
       <c r="H8" s="4">
@@ -2834,11 +2840,11 @@
         <v>3.35</v>
       </c>
       <c r="L8" s="7">
-        <f>IF(K8&lt;&gt;"",J8+K8,"")</f>
+        <f t="shared" si="1"/>
         <v>487.19000000000005</v>
       </c>
       <c r="M8" s="1">
-        <f>IF(L8&lt;&gt;"",L8/I8,"")</f>
+        <f t="shared" si="2"/>
         <v>11.241116751269036</v>
       </c>
       <c r="N8" s="1">
@@ -2865,7 +2871,7 @@
         <v>36.36</v>
       </c>
       <c r="G9">
-        <f>SUM(D9:F9)</f>
+        <f t="shared" si="0"/>
         <v>148.87200000000001</v>
       </c>
       <c r="H9" s="1">
@@ -2879,11 +2885,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="str">
-        <f>IF(K9&lt;&gt;"",J9+K9,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IF(L9&lt;&gt;"",L9/I9,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N9" s="1">
@@ -2910,7 +2916,7 @@
         <v>7.3949999999999996</v>
       </c>
       <c r="G10" s="6">
-        <f>SUM(D10:F10)</f>
+        <f t="shared" si="0"/>
         <v>30.716999999999999</v>
       </c>
       <c r="H10" s="4">
@@ -2927,11 +2933,11 @@
         <v>4.26</v>
       </c>
       <c r="L10" s="7">
-        <f>IF(K10&lt;&gt;"",J10+K10,"")</f>
+        <f t="shared" si="1"/>
         <v>15.19</v>
       </c>
       <c r="M10" s="1">
-        <f>IF(L10&lt;&gt;"",L10/I10,"")</f>
+        <f t="shared" si="2"/>
         <v>0.36902072249350149</v>
       </c>
       <c r="N10" s="1">
@@ -2958,7 +2964,7 @@
         <v>41.465000000000003</v>
       </c>
       <c r="G11">
-        <f>SUM(D11:F11)</f>
+        <f t="shared" si="0"/>
         <v>122.544</v>
       </c>
       <c r="H11" s="1">
@@ -2972,11 +2978,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="str">
-        <f>IF(K11&lt;&gt;"",J11+K11,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IF(L11&lt;&gt;"",L11/I11,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="1">
@@ -3003,7 +3009,7 @@
         <v>6.048</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(D12:F12)</f>
+        <f t="shared" si="0"/>
         <v>19.652000000000001</v>
       </c>
       <c r="H12" s="4">
@@ -3020,11 +3026,11 @@
         <v>4.5</v>
       </c>
       <c r="L12" s="7">
-        <f>IF(K12&lt;&gt;"",J12+K12,"")</f>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="M12" s="1">
-        <f>IF(L12&lt;&gt;"",L12/I12,"")</f>
+        <f t="shared" si="2"/>
         <v>0.17505186721991703</v>
       </c>
       <c r="N12" s="1">
@@ -3051,7 +3057,7 @@
         <v>17.327999999999999</v>
       </c>
       <c r="G13" s="6">
-        <f>SUM(D13:F13)</f>
+        <f t="shared" si="0"/>
         <v>70.915999999999997</v>
       </c>
       <c r="H13" s="4">
@@ -3068,11 +3074,11 @@
         <v>33.229999999999997</v>
       </c>
       <c r="L13" s="7">
-        <f>IF(K13&lt;&gt;"",J13+K13,"")</f>
+        <f t="shared" si="1"/>
         <v>95.8</v>
       </c>
       <c r="M13" s="1">
-        <f>IF(L13&lt;&gt;"",L13/I13,"")</f>
+        <f t="shared" si="2"/>
         <v>0.97735156090593756</v>
       </c>
       <c r="N13" s="1">
@@ -3099,7 +3105,7 @@
         <v>54.750999999999998</v>
       </c>
       <c r="G14" s="10">
-        <f>SUM(D14:F14)</f>
+        <f t="shared" si="0"/>
         <v>99.252999999999986</v>
       </c>
       <c r="H14" s="9">
@@ -3113,11 +3119,11 @@
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="str">
-        <f>IF(K14&lt;&gt;"",J14+K14,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M14" s="9" t="str">
-        <f>IF(L14&lt;&gt;"",L14/I14,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" s="9">
@@ -3144,7 +3150,7 @@
         <v>9.9879999999999995</v>
       </c>
       <c r="G15" s="6">
-        <f>SUM(D15:F15)</f>
+        <f t="shared" si="0"/>
         <v>41.871000000000002</v>
       </c>
       <c r="H15" s="4">
@@ -3161,11 +3167,11 @@
         <v>1.56</v>
       </c>
       <c r="L15" s="7">
-        <f>IF(K15&lt;&gt;"",J15+K15,"")</f>
+        <f t="shared" si="1"/>
         <v>23.66</v>
       </c>
       <c r="M15" s="1">
-        <f>IF(L15&lt;&gt;"",L15/I15,"")</f>
+        <f t="shared" si="2"/>
         <v>0.43343653250773989</v>
       </c>
       <c r="N15" s="1">
@@ -3192,7 +3198,7 @@
         <v>8.7720000000000002</v>
       </c>
       <c r="G16" s="12">
-        <f>SUM(D16:F16)</f>
+        <f t="shared" si="0"/>
         <v>32.542000000000002</v>
       </c>
       <c r="H16" s="4">
@@ -3208,11 +3214,11 @@
         <v>10.94</v>
       </c>
       <c r="L16" s="7">
-        <f>IF(K16&lt;&gt;"",J16+K16,"")</f>
+        <f t="shared" si="1"/>
         <v>15.41</v>
       </c>
       <c r="M16" s="1">
-        <f>IF(L16&lt;&gt;"",L16/I16,"")</f>
+        <f t="shared" si="2"/>
         <v>0.3231624200482332</v>
       </c>
       <c r="N16" s="1">
@@ -3239,7 +3245,7 @@
         <v>16.335000000000001</v>
       </c>
       <c r="G17" s="6">
-        <f>SUM(D17:F17)</f>
+        <f t="shared" si="0"/>
         <v>57.201000000000001</v>
       </c>
       <c r="H17" s="4">
@@ -3256,11 +3262,11 @@
         <v>14.98</v>
       </c>
       <c r="L17" s="7">
-        <f>IF(K17&lt;&gt;"",J17+K17,"")</f>
+        <f t="shared" si="1"/>
         <v>58.769999999999996</v>
       </c>
       <c r="M17" s="1">
-        <f>IF(L17&lt;&gt;"",L17/I17,"")</f>
+        <f t="shared" si="2"/>
         <v>0.6797834686654175</v>
       </c>
       <c r="N17" s="1">
@@ -3287,7 +3293,7 @@
         <v>21.600999999999999</v>
       </c>
       <c r="G18">
-        <f>SUM(D18:F18)</f>
+        <f t="shared" si="0"/>
         <v>75.382000000000005</v>
       </c>
       <c r="H18" s="1">
@@ -3301,11 +3307,11 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="str">
-        <f>IF(K18&lt;&gt;"",J18+K18,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M18" s="1" t="str">
-        <f>IF(L18&lt;&gt;"",L18/I18,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" s="1">
@@ -3332,7 +3338,7 @@
         <v>9.6229999999999993</v>
       </c>
       <c r="G19" s="6">
-        <f>SUM(D19:F19)</f>
+        <f t="shared" si="0"/>
         <v>45.404000000000003</v>
       </c>
       <c r="H19" s="4">
@@ -3349,11 +3355,11 @@
         <v>2.95</v>
       </c>
       <c r="L19" s="7">
-        <f>IF(K19&lt;&gt;"",J19+K19,"")</f>
+        <f t="shared" si="1"/>
         <v>17.39</v>
       </c>
       <c r="M19" s="1">
-        <f>IF(L19&lt;&gt;"",L19/I19,"")</f>
+        <f t="shared" si="2"/>
         <v>0.30426034467675617</v>
       </c>
       <c r="N19" s="1">
@@ -3380,7 +3386,7 @@
         <v>10.961</v>
       </c>
       <c r="G20" s="6">
-        <f>SUM(D20:F20)</f>
+        <f t="shared" si="0"/>
         <v>43.091999999999999</v>
       </c>
       <c r="H20" s="4">
@@ -3397,11 +3403,11 @@
         <v>15.06</v>
       </c>
       <c r="L20" s="7">
-        <f>IF(K20&lt;&gt;"",J20+K20,"")</f>
+        <f t="shared" si="1"/>
         <v>41.97</v>
       </c>
       <c r="M20" s="1">
-        <f>IF(L20&lt;&gt;"",L20/I20,"")</f>
+        <f t="shared" si="2"/>
         <v>0.68056884334106282</v>
       </c>
       <c r="N20" s="1">
@@ -3428,7 +3434,7 @@
         <v>20.582000000000001</v>
       </c>
       <c r="G21" s="6">
-        <f>SUM(D21:F21)</f>
+        <f t="shared" si="0"/>
         <v>75.794999999999987</v>
       </c>
       <c r="H21" s="4">
@@ -3445,11 +3451,11 @@
         <v>3.38</v>
       </c>
       <c r="L21" s="7">
-        <f>IF(K21&lt;&gt;"",J21+K21,"")</f>
+        <f t="shared" si="1"/>
         <v>5330.2</v>
       </c>
       <c r="M21" s="1">
-        <f>IF(L21&lt;&gt;"",L21/I21,"")</f>
+        <f t="shared" si="2"/>
         <v>49.862952187619854</v>
       </c>
       <c r="N21" s="1">
@@ -3476,7 +3482,7 @@
         <v>4.4530000000000003</v>
       </c>
       <c r="G22" s="6">
-        <f>SUM(D22:F22)</f>
+        <f t="shared" si="0"/>
         <v>15.54</v>
       </c>
       <c r="H22" s="4">
@@ -3493,11 +3499,11 @@
         <v>2.75</v>
       </c>
       <c r="L22" s="7">
-        <f>IF(K22&lt;&gt;"",J22+K22,"")</f>
+        <f t="shared" si="1"/>
         <v>62.43</v>
       </c>
       <c r="M22" s="1">
-        <f>IF(L22&lt;&gt;"",L22/I22,"")</f>
+        <f t="shared" si="2"/>
         <v>2.6358454718176061</v>
       </c>
       <c r="N22" s="1">
@@ -3524,7 +3530,7 @@
         <v>118.557</v>
       </c>
       <c r="G23">
-        <f>SUM(D23:F23)</f>
+        <f t="shared" si="0"/>
         <v>579.649</v>
       </c>
       <c r="H23" s="1">
@@ -3538,11 +3544,11 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="str">
-        <f>IF(K23&lt;&gt;"",J23+K23,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M23" s="1" t="str">
-        <f>IF(L23&lt;&gt;"",L23/I23,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N23" s="1">
@@ -3569,7 +3575,7 @@
         <v>13.03</v>
       </c>
       <c r="G24" s="6">
-        <f>SUM(D24:F24)</f>
+        <f t="shared" si="0"/>
         <v>48.165000000000006</v>
       </c>
       <c r="H24" s="4">
@@ -3586,11 +3592,11 @@
         <v>3.48</v>
       </c>
       <c r="L24" s="7">
-        <f>IF(K24&lt;&gt;"",J24+K24,"")</f>
+        <f t="shared" si="1"/>
         <v>48.44</v>
       </c>
       <c r="M24" s="1">
-        <f>IF(L24&lt;&gt;"",L24/I24,"")</f>
+        <f t="shared" si="2"/>
         <v>0.63223566571387546</v>
       </c>
       <c r="N24" s="1">
@@ -3617,7 +3623,7 @@
         <v>161.90600000000001</v>
       </c>
       <c r="G25">
-        <f>SUM(D25:F25)</f>
+        <f t="shared" si="0"/>
         <v>538.86300000000006</v>
       </c>
       <c r="H25" s="1">
@@ -3631,11 +3637,11 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="str">
-        <f>IF(K25&lt;&gt;"",J25+K25,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M25" s="1" t="str">
-        <f>IF(L25&lt;&gt;"",L25/I25,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N25" s="1">
@@ -3662,7 +3668,7 @@
         <v>3.569</v>
       </c>
       <c r="G26" s="6">
-        <f>SUM(D26:F26)</f>
+        <f t="shared" si="0"/>
         <v>10.273</v>
       </c>
       <c r="H26" s="4">
@@ -3679,11 +3685,11 @@
         <v>2</v>
       </c>
       <c r="L26" s="7">
-        <f>IF(K26&lt;&gt;"",J26+K26,"")</f>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="M26" s="1">
-        <f>IF(L26&lt;&gt;"",L26/I26,"")</f>
+        <f t="shared" si="2"/>
         <v>0.21422195775066946</v>
       </c>
       <c r="N26" s="1">
@@ -3702,17 +3708,17 @@
       <c r="M27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N27" xr:uid="{ABD28B90-EAC8-194C-BE6B-DDEB0024AFB8}">
+  <autoFilter ref="A1:N27">
     <filterColumn colId="12">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N27">
+    <sortState ref="A2:N27">
       <sortCondition ref="B1:B27"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
+  <sortState ref="A2:A25">
     <sortCondition ref="A2:A25"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3722,14 +3728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B4A11-5529-1941-8067-A09D0215EC8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4359,14 +4365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C62322-1911-9F43-9DE9-BD6EDBA98FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
